--- a/MKA/MKA/mennkendall.xlsx
+++ b/MKA/MKA/mennkendall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huzaifa\Desktop\uno\men_kendall\menn-kendall\MKA\MKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D139036A-5F0B-415C-9329-EE74C96A7CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8234D9-1F92-48DA-87B8-7B83FCDF72A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21270" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{AD317C4D-0F27-48A3-A9A4-E7343F31FC47}"/>
+    <workbookView xWindow="21270" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{AD317C4D-0F27-48A3-A9A4-E7343F31FC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,10 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F6DE93-B642-43A3-8D23-CE7451CE8882}">
   <dimension ref="A1:AM127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AJ1" sqref="AJ1:AM1"/>
     </sheetView>
   </sheetViews>
@@ -530,54 +527,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="U1" s="10" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Z1" s="10" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Z1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AE1" s="10" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AE1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AJ1" s="10" t="s">
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AJ1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12972,8 +12969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F3A1EF-B4AD-4518-8076-02476FF53558}">
   <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17466,16 +17463,7 @@
     </row>
     <row r="47" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AC1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>